--- a/biology/Zoologie/Dolomedes_kalanoro/Dolomedes_kalanoro.xlsx
+++ b/biology/Zoologie/Dolomedes_kalanoro/Dolomedes_kalanoro.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dolomedes kalanoro est une espèce d'araignées aranéomorphes de la famille des Pisauridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dolomedes kalanoro est une espèce d'araignées aranéomorphes de la famille des Pisauridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Madagascar[1]. Elle se rencontre dans le parc national de l'Isalo, la réserve spéciale d'Ambohijanahary, la réserve spéciale d'Analamazoatra et le parc national d'Andasibe-Mantadia[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Madagascar. Elle se rencontre dans le parc national de l'Isalo, la réserve spéciale d'Ambohijanahary, la réserve spéciale d'Analamazoatra et le parc national d'Andasibe-Mantadia,.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 17,55 mm[2].
-Le mâle décrit par Yu et Kuntner en 2024 mesure 15,18 mm et la femelle 20,28 mm[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 17,55 mm.
+Le mâle décrit par Yu et Kuntner en 2024 mesure 15,18 mm et la femelle 20,28 mm.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce a été décrite par Silva et Griswold en 2013.
 </t>
@@ -605,9 +623,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en référence au Kalanoro[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en référence au Kalanoro.
 </t>
         </is>
       </c>
@@ -636,7 +656,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Silva &amp; Griswold, 2013 : « A new species of Dolomedes Latreille, 1804 (Araneae: Lycosoidea: Pisauridae) from Madagascar. » Zootaxa, no 3691(4), p. 461-466.</t>
         </is>
